--- a/project-plan-template.xlsx
+++ b/project-plan-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9915" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan and Gantt" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>Tasks</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>In progress</t>
-  </si>
-  <si>
-    <t>Overdue</t>
   </si>
   <si>
     <t>Name</t>
@@ -251,7 +248,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,13 +285,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -367,17 +357,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,11 +409,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -443,25 +422,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,36 +448,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -640,13 +613,13 @@
                   <c:v>42636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42649</c:v>
+                  <c:v>42664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42650</c:v>
+                  <c:v>42665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42654</c:v>
+                  <c:v>42667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,19 +868,19 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -926,11 +899,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="71330584"/>
-        <c:axId val="4227744"/>
+        <c:axId val="124454776"/>
+        <c:axId val="124450856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71330584"/>
+        <c:axId val="124454776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,7 +946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4227744"/>
+        <c:crossAx val="124450856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -981,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4227744"/>
+        <c:axId val="124450856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71330584"/>
+        <c:crossAx val="124454776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1985,12 +1958,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
@@ -1999,8 +1974,8 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>70</v>
+      <c r="B2" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -2008,8 +1983,8 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>58</v>
+      <c r="B3" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -2026,7 +2001,7 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>42623</v>
       </c>
       <c r="C6" s="1"/>
@@ -2035,8 +2010,8 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15">
-        <v>42654</v>
+      <c r="B7" s="13">
+        <v>42668</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -2044,8 +2019,8 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16">
-        <v>0.1</v>
+      <c r="B8" s="14">
+        <v>0.55000000000000004</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -2055,222 +2030,224 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21.95" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="9">
+        <v>57</v>
+      </c>
+      <c r="C11" s="8">
         <v>42623</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>42628</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21.95" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="9">
+        <v>67</v>
+      </c>
+      <c r="C12" s="8">
         <v>42624</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>42254</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>61</v>
+      <c r="A13" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="9">
+        <v>68</v>
+      </c>
+      <c r="C13" s="8">
         <v>42624</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>42631</v>
       </c>
       <c r="E13" s="3">
         <v>7</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>15</v>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>62</v>
+      <c r="A14" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="9">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8">
         <v>42632</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>42635</v>
       </c>
       <c r="E14" s="3">
         <v>4</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>8</v>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="8">
+        <v>42636</v>
+      </c>
+      <c r="D15" s="8">
+        <v>42663</v>
+      </c>
+      <c r="E15" s="3">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="8">
         <v>42636</v>
       </c>
-      <c r="D15" s="9">
-        <v>42648</v>
-      </c>
-      <c r="E15" s="3">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="D16" s="8">
+        <v>42663</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="8">
         <v>42636</v>
       </c>
-      <c r="D16" s="9">
-        <v>42648</v>
-      </c>
-      <c r="E16" s="3">
-        <v>13</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A17" s="8" t="s">
+      <c r="D17" s="8">
+        <v>42663</v>
+      </c>
+      <c r="E17" s="3">
+        <v>30</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="9">
-        <v>42636</v>
-      </c>
-      <c r="D17" s="9">
-        <v>42648</v>
-      </c>
-      <c r="E17" s="3">
-        <v>13</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="9">
-        <v>42649</v>
-      </c>
-      <c r="D18" s="9">
-        <v>42649</v>
+        <v>57</v>
+      </c>
+      <c r="C18" s="8">
+        <v>42664</v>
+      </c>
+      <c r="D18" s="8">
+        <v>42664</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="8">
+        <v>42665</v>
+      </c>
+      <c r="D19" s="8">
+        <v>42667</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="9">
-        <v>42650</v>
-      </c>
-      <c r="D19" s="9">
-        <v>42653</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="C20" s="16">
+        <v>42667</v>
+      </c>
+      <c r="D20" s="16">
+        <v>42668</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="18">
-        <v>42654</v>
-      </c>
-      <c r="D20" s="18">
-        <v>42654</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="29.1" customHeight="1"/>
     <row r="22" spans="1:6" ht="15.75" customHeight="1"/>
@@ -2307,105 +2284,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.95" customHeight="1">
+      <c r="A4" s="20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="D4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="5" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2439,129 +2416,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="24" t="s">
+      <c r="B3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.95" customHeight="1">
+      <c r="A4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A4" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>0.5</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>2800</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <v>3500</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="26">
         <v>3600</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="24">
         <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2593,168 +2570,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75">
+      <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="19" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="42.95" customHeight="1">
+      <c r="A4" s="27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="B4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.95" customHeight="1">
+      <c r="A5" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="29" t="s">
+      <c r="B5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="G5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project-plan-template.xlsx
+++ b/project-plan-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MrBluesky\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan and Gantt" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>Tasks</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Complete</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>Name</t>
@@ -248,7 +245,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,23 +293,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF6600"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
+      <color rgb="FF008000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -419,12 +410,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,7 +452,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,6 +464,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -493,6 +484,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF008000"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -899,11 +896,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="124454776"/>
-        <c:axId val="124450856"/>
+        <c:axId val="123738416"/>
+        <c:axId val="123738976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124454776"/>
+        <c:axId val="123738416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +943,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124450856"/>
+        <c:crossAx val="123738976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -954,7 +951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124450856"/>
+        <c:axId val="123738976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,7 +1002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124454776"/>
+        <c:crossAx val="123738416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1959,7 +1956,7 @@
   <dimension ref="A2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1974,8 +1971,8 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>69</v>
+      <c r="B2" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1983,8 +1980,8 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>57</v>
+      <c r="B3" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -2001,7 +1998,7 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>42623</v>
       </c>
       <c r="C6" s="1"/>
@@ -2010,7 +2007,7 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>42668</v>
       </c>
       <c r="C7" s="1"/>
@@ -2019,7 +2016,7 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>0.55000000000000004</v>
       </c>
       <c r="C8" s="1"/>
@@ -2030,36 +2027,36 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21.95" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="8">
+        <v>56</v>
+      </c>
+      <c r="C11" s="6">
         <v>42623</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>42628</v>
       </c>
       <c r="E11" s="3">
@@ -2071,15 +2068,15 @@
     </row>
     <row r="12" spans="1:6" ht="21.95" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="8">
+        <v>66</v>
+      </c>
+      <c r="C12" s="6">
         <v>42624</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>42254</v>
       </c>
       <c r="E12" s="3">
@@ -2090,16 +2087,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>60</v>
+      <c r="A13" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="8">
+        <v>67</v>
+      </c>
+      <c r="C13" s="6">
         <v>42624</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>42631</v>
       </c>
       <c r="E13" s="3">
@@ -2110,142 +2107,142 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>61</v>
+      <c r="A14" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="8">
+        <v>56</v>
+      </c>
+      <c r="C14" s="6">
         <v>42632</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>42635</v>
       </c>
       <c r="E14" s="3">
         <v>4</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>62</v>
+      <c r="A15" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="8">
+        <v>66</v>
+      </c>
+      <c r="C15" s="6">
         <v>42636</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>42663</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>15</v>
+      <c r="F15" s="26" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>63</v>
+      <c r="A16" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="8">
+        <v>56</v>
+      </c>
+      <c r="C16" s="6">
         <v>42636</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>42663</v>
       </c>
       <c r="E16" s="3">
         <v>30</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>15</v>
+      <c r="F16" s="26" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>64</v>
+      <c r="A17" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="8">
+        <v>66</v>
+      </c>
+      <c r="C17" s="6">
         <v>42636</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>42663</v>
       </c>
       <c r="E17" s="3">
         <v>30</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>15</v>
+      <c r="F17" s="26" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>65</v>
+      <c r="A18" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="8">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6">
         <v>42664</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>42664</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>8</v>
+      <c r="F18" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>42665</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>42667</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>8</v>
+      <c r="F19" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="B20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="14">
         <v>42667</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <v>42668</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <v>1</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2255,8 +2252,8 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2284,105 +2281,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.95" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="B4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="D4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="5" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2416,129 +2413,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="22" t="s">
+      <c r="B3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.95" customHeight="1">
+      <c r="A4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <v>0.5</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>2800</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <v>3500</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <v>3600</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2570,168 +2567,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75">
+      <c r="A3" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="17" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="42.95" customHeight="1">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="B4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.95" customHeight="1">
+      <c r="A5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
